--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_1_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_1_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>947464.2872131444</v>
+        <v>873494.9778685428</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>404724.2260944803</v>
+        <v>405687.0519298025</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11762410.58428956</v>
+        <v>11773978.35958494</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7502752.112784334</v>
+        <v>7510059.110352622</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>80.33470701582003</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.488110710504135</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -749,16 +749,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -995,10 +995,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>69.05674881342118</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1132,65 +1132,65 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C8" t="n">
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T8" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="Y8" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1232,10 +1232,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1265,19 +1265,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>94.94593353446669</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>84.14750936819277</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>276.1565137023554</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>276.1565137023554</v>
+        <v>327.7165051416146</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.674275242386</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>243.2386572690345</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>276.1565137023554</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1448,25 +1448,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>107.0159873637655</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>66.6035055920714</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>161.6448423772187</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>25.91727181742066</v>
       </c>
       <c r="U12" t="n">
-        <v>175.7569470849741</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>175.1311939478778</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>228.2062988327025</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.9934051322452</v>
+        <v>414.2926691378088</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>67.62176764444249</v>
+        <v>86.42041023393334</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.3642470580309</v>
+        <v>218.674275242386</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2409063172053</v>
+        <v>201.2984297414872</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>335.1896276436521</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,10 +1685,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.6429625774031</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>105.4695617893551</v>
+        <v>107.0159873637655</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>70.78957724245153</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>56.66199767592527</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>158.6706769332459</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>197.341002096764</v>
+        <v>197.9863995095175</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8952929634875</v>
+        <v>158.0981420230568</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1754,7 +1754,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>188.3160856335027</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>128.2597999156811</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4036579268715</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>157.0053510520544</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>137.788117693706</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>193.8209438199394</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>45.53210180592309</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.2926691378088</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>159.9978528790433</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>67.62176764444247</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>179.1836579111419</v>
+        <v>186.0031364379248</v>
       </c>
       <c r="T17" t="n">
-        <v>217.3642470580309</v>
+        <v>218.674275242386</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2409063172053</v>
+        <v>101.7157035374959</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1928,7 +1928,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -1937,13 +1937,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.6429625774031</v>
+        <v>136.8030829366063</v>
       </c>
       <c r="H18" t="n">
-        <v>1.362319022695519</v>
+        <v>107.0159873637655</v>
       </c>
       <c r="I18" t="n">
-        <v>65.27666136637444</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>56.66199767592526</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>158.6706769332459</v>
+        <v>161.6448423772187</v>
       </c>
       <c r="T18" t="n">
-        <v>197.341002096764</v>
+        <v>197.9863995095175</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8952929634875</v>
+        <v>225.9058271976456</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>57.14033287316993</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -2004,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>78.7338078165911</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.537897457236</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>3.734157121088839</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>141.8250664795777</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.4361251296812</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2869936420407</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>271.2120019978356</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.9934051322452</v>
+        <v>414.2926691378088</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>9.022628939413307</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>67.62176764444247</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>218.674275242386</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2171,10 +2171,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>114.8747282490147</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>66.6035055920714</v>
       </c>
       <c r="S21" t="n">
-        <v>158.6706769332459</v>
+        <v>161.6448423772187</v>
       </c>
       <c r="T21" t="n">
-        <v>197.341002096764</v>
+        <v>197.9863995095175</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8952929634875</v>
+        <v>80.01607206505177</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2244,10 +2244,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>117.789363333389</v>
       </c>
       <c r="E22" t="n">
-        <v>52.03228962244437</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>216.1206161765721</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2869936420407</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>269.5134569480836</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
-        <v>170.1519553773891</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>118.2537958723261</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>169.0167291702126</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2560,10 +2560,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2572,10 +2572,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>150.5031652935612</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>312.9807318302821</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2693,7 +2693,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V27" t="n">
-        <v>232.800587149425</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>54.6312218570059</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2797,19 +2797,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>84.41894673989164</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>230.9194363153456</v>
       </c>
     </row>
     <row r="30">
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>91.82580793753526</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>4.553842565068913</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>104.5113366705984</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>79.02949083744059</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,13 +3195,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>83.82953530753691</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>9.764863467406098</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,25 +3268,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>59.03226091544995</v>
       </c>
       <c r="T35" t="n">
-        <v>156.8259034355773</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>43.31785343913925</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>124.0524456467803</v>
       </c>
       <c r="E38" t="n">
-        <v>359.5649898846648</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.2114886365804</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>216.6993815150878</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>296.4738938526975</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3748,19 +3748,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>326.1406068099833</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
@@ -3954,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>128.8014312500952</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>1.706926911161728</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3994,10 +3994,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,25 +4024,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>120.505152427241</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>186.179588161452</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>95.26725446313688</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4191,10 +4191,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>156.1271626621474</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100.4273118130612</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C2" t="n">
-        <v>100.4273118130612</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D2" t="n">
-        <v>100.4273118130612</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E2" t="n">
-        <v>100.4273118130612</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H2" t="n">
         <v>19.28114311021272</v>
@@ -4354,28 +4354,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>587.3248651012614</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>343.8760884571613</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>343.8760884571613</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>343.8760884571613</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>343.8760884571613</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y2" t="n">
-        <v>100.4273118130612</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>369.484465818592</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="C3" t="n">
-        <v>369.484465818592</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="D3" t="n">
-        <v>369.484465818592</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="E3" t="n">
-        <v>369.484465818592</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="F3" t="n">
-        <v>222.9499078454769</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="G3" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
         <v>19.28114311021272</v>
@@ -4412,22 +4412,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>383.2428491569326</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>621.8469951458151</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O3" t="n">
-        <v>860.4511411346975</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4436,25 +4436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U3" t="n">
-        <v>790.6398109613051</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V3" t="n">
-        <v>790.6398109613051</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W3" t="n">
-        <v>790.6398109613051</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X3" t="n">
-        <v>582.7883107557723</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y3" t="n">
-        <v>375.0280119908184</v>
+        <v>55.04605772994853</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="C5" t="n">
         <v>477.1596022224361</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>233.7108255783361</v>
       </c>
-      <c r="D5" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.0571555106362</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>646.9074088293169</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>487.6699538238614</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>341.1353958507464</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>202.4045704333619</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>89.03543484094119</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N6" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C8" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D8" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E8" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F8" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y8" t="n">
-        <v>761.6974622895962</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>284.787934186969</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4892,16 +4892,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>249.2442489785619</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4913,22 +4913,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>790.6398109613051</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U9" t="n">
-        <v>790.6398109613051</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V9" t="n">
-        <v>555.4877027295624</v>
+        <v>492.5482329519229</v>
       </c>
       <c r="W9" t="n">
-        <v>312.0389260854624</v>
+        <v>492.5482329519229</v>
       </c>
       <c r="X9" t="n">
-        <v>227.0414418751666</v>
+        <v>492.5482329519229</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>284.787934186969</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I10" t="n">
         <v>19.28114311021272</v>
@@ -4983,31 +4983,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>301.0384945329111</v>
+        <v>759.002902184563</v>
       </c>
       <c r="C11" t="n">
-        <v>301.0384945329111</v>
+        <v>759.002902184563</v>
       </c>
       <c r="D11" t="n">
-        <v>22.09252109618843</v>
+        <v>427.9761293142453</v>
       </c>
       <c r="E11" t="n">
-        <v>22.09252109618843</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="F11" t="n">
-        <v>22.09252109618843</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="G11" t="n">
-        <v>22.09252109618843</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="H11" t="n">
-        <v>22.09252109618843</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="I11" t="n">
-        <v>22.09252109618843</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="J11" t="n">
-        <v>22.09252109618842</v>
+        <v>115.2290882856228</v>
       </c>
       <c r="K11" t="n">
-        <v>142.8373253438683</v>
+        <v>345.4437346953287</v>
       </c>
       <c r="L11" t="n">
-        <v>344.9085595412868</v>
+        <v>683.321988080341</v>
       </c>
       <c r="M11" t="n">
-        <v>586.3582880173956</v>
+        <v>1075.883192613821</v>
       </c>
       <c r="N11" t="n">
-        <v>817.0829279823541</v>
+        <v>1460.164450300943</v>
       </c>
       <c r="O11" t="n">
-        <v>989.7620250901064</v>
+        <v>1777.842707170707</v>
       </c>
       <c r="P11" t="n">
-        <v>1099.465256491931</v>
+        <v>2011.299366755286</v>
       </c>
       <c r="Q11" t="n">
-        <v>1104.626054809422</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="R11" t="n">
-        <v>1104.626054809422</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="S11" t="n">
-        <v>1104.626054809422</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="T11" t="n">
-        <v>1104.626054809422</v>
+        <v>1888.510729494611</v>
       </c>
       <c r="U11" t="n">
-        <v>1104.626054809422</v>
+        <v>1888.510729494611</v>
       </c>
       <c r="V11" t="n">
-        <v>1104.626054809422</v>
+        <v>1888.510729494611</v>
       </c>
       <c r="W11" t="n">
-        <v>858.9304414063565</v>
+        <v>1535.742074224496</v>
       </c>
       <c r="X11" t="n">
-        <v>858.9304414063565</v>
+        <v>1535.742074224496</v>
       </c>
       <c r="Y11" t="n">
-        <v>579.9844679696338</v>
+        <v>1145.602742248685</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>22.09252109618843</v>
+        <v>779.4442855700464</v>
       </c>
       <c r="C12" t="n">
-        <v>22.09252109618843</v>
+        <v>604.9912562889194</v>
       </c>
       <c r="D12" t="n">
-        <v>22.09252109618843</v>
+        <v>456.0568466276681</v>
       </c>
       <c r="E12" t="n">
-        <v>22.09252109618843</v>
+        <v>296.8193916222126</v>
       </c>
       <c r="F12" t="n">
-        <v>22.09252109618843</v>
+        <v>150.2848336490975</v>
       </c>
       <c r="G12" t="n">
-        <v>22.09252109618843</v>
+        <v>150.2848336490975</v>
       </c>
       <c r="H12" t="n">
-        <v>22.09252109618843</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="I12" t="n">
-        <v>22.09252109618843</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="J12" t="n">
-        <v>28.39914141318534</v>
+        <v>91.9973422614716</v>
       </c>
       <c r="K12" t="n">
-        <v>165.799003153448</v>
+        <v>303.7504955284375</v>
       </c>
       <c r="L12" t="n">
-        <v>411.954469746149</v>
+        <v>371.2691274247622</v>
       </c>
       <c r="M12" t="n">
-        <v>641.2451212288495</v>
+        <v>827.1688172098176</v>
       </c>
       <c r="N12" t="n">
-        <v>641.2451212288495</v>
+        <v>1310.841828599075</v>
       </c>
       <c r="O12" t="n">
-        <v>907.7419348121333</v>
+        <v>1686.892462576445</v>
       </c>
       <c r="P12" t="n">
-        <v>1104.626054809422</v>
+        <v>1971.703181875404</v>
       </c>
       <c r="Q12" t="n">
-        <v>1104.626054809422</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="R12" t="n">
-        <v>1104.626054809422</v>
+        <v>2042.117567525231</v>
       </c>
       <c r="S12" t="n">
-        <v>1104.626054809422</v>
+        <v>1878.839948962384</v>
       </c>
       <c r="T12" t="n">
-        <v>1104.626054809422</v>
+        <v>1852.660886520545</v>
       </c>
       <c r="U12" t="n">
-        <v>927.0937850266196</v>
+        <v>1852.660886520545</v>
       </c>
       <c r="V12" t="n">
-        <v>691.9416767948768</v>
+        <v>1617.508778288803</v>
       </c>
       <c r="W12" t="n">
-        <v>437.7043200666752</v>
+        <v>1363.271421560601</v>
       </c>
       <c r="X12" t="n">
-        <v>229.8528198611423</v>
+        <v>1155.419921355068</v>
       </c>
       <c r="Y12" t="n">
-        <v>22.09252109618843</v>
+        <v>947.6596225901144</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22.09252109618843</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="C13" t="n">
-        <v>22.09252109618843</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="D13" t="n">
-        <v>22.09252109618843</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="E13" t="n">
-        <v>22.09252109618843</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="F13" t="n">
-        <v>22.09252109618843</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="G13" t="n">
-        <v>22.09252109618843</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="H13" t="n">
-        <v>22.09252109618843</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="I13" t="n">
-        <v>22.09252109618843</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="J13" t="n">
-        <v>22.09252109618843</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="K13" t="n">
-        <v>22.09252109618843</v>
+        <v>72.25456008701796</v>
       </c>
       <c r="L13" t="n">
-        <v>58.70189726492713</v>
+        <v>166.255997808103</v>
       </c>
       <c r="M13" t="n">
-        <v>107.6904745160686</v>
+        <v>275.7564570053804</v>
       </c>
       <c r="N13" t="n">
-        <v>160.9488293168851</v>
+        <v>388.0878564503601</v>
       </c>
       <c r="O13" t="n">
-        <v>194.1252445754622</v>
+        <v>475.8277896871616</v>
       </c>
       <c r="P13" t="n">
-        <v>198.9927170031358</v>
+        <v>527.3837778842136</v>
       </c>
       <c r="Q13" t="n">
-        <v>198.9927170031358</v>
+        <v>527.3837778842136</v>
       </c>
       <c r="R13" t="n">
-        <v>198.9927170031358</v>
+        <v>527.3837778842136</v>
       </c>
       <c r="S13" t="n">
-        <v>198.9927170031358</v>
+        <v>527.3837778842136</v>
       </c>
       <c r="T13" t="n">
-        <v>22.09252109618843</v>
+        <v>527.3837778842136</v>
       </c>
       <c r="U13" t="n">
-        <v>22.09252109618843</v>
+        <v>527.3837778842136</v>
       </c>
       <c r="V13" t="n">
-        <v>22.09252109618843</v>
+        <v>272.6992896783267</v>
       </c>
       <c r="W13" t="n">
-        <v>22.09252109618843</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="X13" t="n">
-        <v>22.09252109618843</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="Y13" t="n">
-        <v>22.09252109618843</v>
+        <v>42.18787671600102</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>467.2811965381418</v>
+        <v>871.6512250791529</v>
       </c>
       <c r="C14" t="n">
-        <v>467.2811965381418</v>
+        <v>871.6512250791529</v>
       </c>
       <c r="D14" t="n">
-        <v>467.2811965381418</v>
+        <v>871.6512250791529</v>
       </c>
       <c r="E14" t="n">
-        <v>467.2811965381418</v>
+        <v>871.6512250791529</v>
       </c>
       <c r="F14" t="n">
-        <v>467.2811965381418</v>
+        <v>460.6653202895453</v>
       </c>
       <c r="G14" t="n">
-        <v>49.10603983890425</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="H14" t="n">
-        <v>49.10603983890425</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="I14" t="n">
-        <v>49.10603983890425</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="J14" t="n">
-        <v>147.292913216816</v>
+        <v>115.2290882856224</v>
       </c>
       <c r="K14" t="n">
-        <v>415.1943883367685</v>
+        <v>345.4437346953283</v>
       </c>
       <c r="L14" t="n">
-        <v>799.8264852341949</v>
+        <v>683.3219880803407</v>
       </c>
       <c r="M14" t="n">
-        <v>1244.410349176443</v>
+        <v>1075.88319261382</v>
       </c>
       <c r="N14" t="n">
-        <v>1681.556047289583</v>
+        <v>1460.164450300943</v>
       </c>
       <c r="O14" t="n">
-        <v>2049.152696194594</v>
+        <v>1777.842707170707</v>
       </c>
       <c r="P14" t="n">
-        <v>2325.213548478439</v>
+        <v>2011.299366755286</v>
       </c>
       <c r="Q14" t="n">
-        <v>2455.301991945213</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="R14" t="n">
-        <v>2386.997176142746</v>
+        <v>2022.100492129411</v>
       </c>
       <c r="S14" t="n">
-        <v>2386.997176142746</v>
+        <v>2022.100492129411</v>
       </c>
       <c r="T14" t="n">
-        <v>2167.437330629583</v>
+        <v>1801.21738582397</v>
       </c>
       <c r="U14" t="n">
-        <v>1913.65863737988</v>
+        <v>1597.885638610347</v>
       </c>
       <c r="V14" t="n">
-        <v>1582.59575003631</v>
+        <v>1597.885638610347</v>
       </c>
       <c r="W14" t="n">
-        <v>1244.020368578075</v>
+        <v>1245.116983340233</v>
       </c>
       <c r="X14" t="n">
-        <v>1244.020368578075</v>
+        <v>871.6512250791529</v>
       </c>
       <c r="Y14" t="n">
-        <v>853.8810366022635</v>
+        <v>871.6512250791529</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>922.8235971808209</v>
+        <v>676.4958797661432</v>
       </c>
       <c r="C15" t="n">
-        <v>748.3705678996939</v>
+        <v>676.4958797661432</v>
       </c>
       <c r="D15" t="n">
-        <v>599.4361582384427</v>
+        <v>527.5614701048919</v>
       </c>
       <c r="E15" t="n">
-        <v>440.1987032329872</v>
+        <v>368.3240150994363</v>
       </c>
       <c r="F15" t="n">
-        <v>293.6641452598722</v>
+        <v>221.7894571263213</v>
       </c>
       <c r="G15" t="n">
-        <v>155.6409507372428</v>
+        <v>221.7894571263213</v>
       </c>
       <c r="H15" t="n">
-        <v>49.10603983890425</v>
+        <v>113.6925001932248</v>
       </c>
       <c r="I15" t="n">
-        <v>49.10603983890425</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="J15" t="n">
-        <v>113.8920892923634</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="K15" t="n">
-        <v>351.2426098932701</v>
+        <v>162.827138532967</v>
       </c>
       <c r="L15" t="n">
-        <v>705.488662671351</v>
+        <v>508.9597813494083</v>
       </c>
       <c r="M15" t="n">
-        <v>1201.553491139128</v>
+        <v>964.8594711344637</v>
       </c>
       <c r="N15" t="n">
-        <v>1726.454692916938</v>
+        <v>1448.532482523721</v>
       </c>
       <c r="O15" t="n">
-        <v>2140.221066519054</v>
+        <v>1824.583116501091</v>
       </c>
       <c r="P15" t="n">
-        <v>2455.301991945213</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="Q15" t="n">
-        <v>2455.301991945213</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="R15" t="n">
-        <v>2398.067650858419</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="S15" t="n">
-        <v>2237.794239814737</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="T15" t="n">
-        <v>2038.45989426245</v>
+        <v>1909.407573669225</v>
       </c>
       <c r="U15" t="n">
-        <v>1810.282830662967</v>
+        <v>1749.712480716642</v>
       </c>
       <c r="V15" t="n">
-        <v>1575.130722431225</v>
+        <v>1514.5603724849</v>
       </c>
       <c r="W15" t="n">
-        <v>1320.893365703023</v>
+        <v>1260.323015756698</v>
       </c>
       <c r="X15" t="n">
-        <v>1113.04186549749</v>
+        <v>1052.471515551165</v>
       </c>
       <c r="Y15" t="n">
-        <v>922.8235971808209</v>
+        <v>844.7112167862113</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>645.5271778068972</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="C16" t="n">
-        <v>645.5271778068972</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="D16" t="n">
-        <v>645.5271778068972</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="E16" t="n">
-        <v>645.5271778068972</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="F16" t="n">
-        <v>515.9718243567143</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="G16" t="n">
-        <v>346.8772203901774</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="H16" t="n">
-        <v>188.2859567012335</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="I16" t="n">
-        <v>49.10603983890425</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="J16" t="n">
-        <v>49.10603983890425</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="K16" t="n">
-        <v>94.61295399245027</v>
+        <v>72.25456008701795</v>
       </c>
       <c r="L16" t="n">
-        <v>208.3725712297701</v>
+        <v>166.255997808103</v>
       </c>
       <c r="M16" t="n">
-        <v>338.705260425729</v>
+        <v>275.7564570053804</v>
       </c>
       <c r="N16" t="n">
-        <v>471.3735460023449</v>
+        <v>388.0878564503601</v>
       </c>
       <c r="O16" t="n">
-        <v>577.8978852021169</v>
+        <v>475.8277896871616</v>
       </c>
       <c r="P16" t="n">
-        <v>645.5271778068972</v>
+        <v>527.3837778842136</v>
       </c>
       <c r="Q16" t="n">
-        <v>645.5271778068972</v>
+        <v>527.3837778842136</v>
       </c>
       <c r="R16" t="n">
-        <v>645.5271778068972</v>
+        <v>527.3837778842136</v>
       </c>
       <c r="S16" t="n">
-        <v>645.5271778068972</v>
+        <v>527.3837778842136</v>
       </c>
       <c r="T16" t="n">
-        <v>645.5271778068972</v>
+        <v>527.3837778842136</v>
       </c>
       <c r="U16" t="n">
-        <v>645.5271778068972</v>
+        <v>331.6050467529616</v>
       </c>
       <c r="V16" t="n">
-        <v>645.5271778068972</v>
+        <v>331.6050467529616</v>
       </c>
       <c r="W16" t="n">
-        <v>645.5271778068972</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="X16" t="n">
-        <v>645.5271778068972</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="Y16" t="n">
-        <v>645.5271778068972</v>
+        <v>42.18787671600101</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>965.4708021846748</v>
+        <v>871.6512250791529</v>
       </c>
       <c r="C17" t="n">
-        <v>596.508285244263</v>
+        <v>871.6512250791529</v>
       </c>
       <c r="D17" t="n">
-        <v>596.508285244263</v>
+        <v>871.6512250791529</v>
       </c>
       <c r="E17" t="n">
-        <v>210.7200326460187</v>
+        <v>871.6512250791529</v>
       </c>
       <c r="F17" t="n">
-        <v>210.7200326460187</v>
+        <v>460.6653202895453</v>
       </c>
       <c r="G17" t="n">
-        <v>210.7200326460187</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="H17" t="n">
-        <v>210.7200326460187</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="I17" t="n">
-        <v>49.10603983890425</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="J17" t="n">
-        <v>147.2929132168158</v>
+        <v>115.2290882856225</v>
       </c>
       <c r="K17" t="n">
-        <v>415.194388336768</v>
+        <v>345.4437346953282</v>
       </c>
       <c r="L17" t="n">
-        <v>799.8264852341944</v>
+        <v>683.3219880803408</v>
       </c>
       <c r="M17" t="n">
-        <v>1244.410349176442</v>
+        <v>1075.883192613821</v>
       </c>
       <c r="N17" t="n">
-        <v>1681.556047289582</v>
+        <v>1460.164450300943</v>
       </c>
       <c r="O17" t="n">
-        <v>2049.152696194593</v>
+        <v>1777.842707170707</v>
       </c>
       <c r="P17" t="n">
-        <v>2325.213548478439</v>
+        <v>2011.299366755286</v>
       </c>
       <c r="Q17" t="n">
-        <v>2455.301991945213</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="R17" t="n">
-        <v>2386.997176142746</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="S17" t="n">
-        <v>2206.003582293107</v>
+        <v>1921.511879802147</v>
       </c>
       <c r="T17" t="n">
-        <v>1986.443736779945</v>
+        <v>1700.628773496706</v>
       </c>
       <c r="U17" t="n">
-        <v>1732.665043530242</v>
+        <v>1597.885638610347</v>
       </c>
       <c r="V17" t="n">
-        <v>1401.602156186671</v>
+        <v>1597.885638610347</v>
       </c>
       <c r="W17" t="n">
-        <v>1401.602156186671</v>
+        <v>1245.116983340233</v>
       </c>
       <c r="X17" t="n">
-        <v>1401.602156186671</v>
+        <v>871.6512250791529</v>
       </c>
       <c r="Y17" t="n">
-        <v>1011.46282421086</v>
+        <v>871.6512250791529</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>737.0662297124684</v>
+        <v>622.1602501948784</v>
       </c>
       <c r="C18" t="n">
-        <v>562.6132004313414</v>
+        <v>447.7072209137514</v>
       </c>
       <c r="D18" t="n">
-        <v>413.6787907700901</v>
+        <v>447.7072209137514</v>
       </c>
       <c r="E18" t="n">
-        <v>254.4413357646346</v>
+        <v>288.4697659082959</v>
       </c>
       <c r="F18" t="n">
-        <v>254.4413357646346</v>
+        <v>288.4697659082959</v>
       </c>
       <c r="G18" t="n">
-        <v>116.4181412420052</v>
+        <v>150.2848336490975</v>
       </c>
       <c r="H18" t="n">
-        <v>115.0420614211007</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="I18" t="n">
-        <v>49.10603983890425</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="J18" t="n">
-        <v>87.5866799621877</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="K18" t="n">
-        <v>324.9372005630943</v>
+        <v>162.8271385329671</v>
       </c>
       <c r="L18" t="n">
-        <v>705.4886626713501</v>
+        <v>508.9597813494083</v>
       </c>
       <c r="M18" t="n">
-        <v>1201.553491139127</v>
+        <v>964.8594711344637</v>
       </c>
       <c r="N18" t="n">
-        <v>1726.454692916937</v>
+        <v>1448.532482523721</v>
       </c>
       <c r="O18" t="n">
-        <v>2140.221066519054</v>
+        <v>1824.583116501091</v>
       </c>
       <c r="P18" t="n">
-        <v>2455.301991945213</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="Q18" t="n">
-        <v>2455.301991945213</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="R18" t="n">
-        <v>2398.067650858419</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="S18" t="n">
-        <v>2237.794239814737</v>
+        <v>1946.116217237203</v>
       </c>
       <c r="T18" t="n">
-        <v>2038.45989426245</v>
+        <v>1746.129955106378</v>
       </c>
       <c r="U18" t="n">
-        <v>1810.282830662967</v>
+        <v>1517.942250866332</v>
       </c>
       <c r="V18" t="n">
-        <v>1575.130722431225</v>
+        <v>1460.224742913635</v>
       </c>
       <c r="W18" t="n">
-        <v>1320.893365703023</v>
+        <v>1205.987386185433</v>
       </c>
       <c r="X18" t="n">
-        <v>1113.04186549749</v>
+        <v>998.1358859799002</v>
       </c>
       <c r="Y18" t="n">
-        <v>905.2815667325365</v>
+        <v>790.3755872149463</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>128.6351386435417</v>
+        <v>527.3837778842135</v>
       </c>
       <c r="C19" t="n">
-        <v>128.6351386435417</v>
+        <v>358.4475949563066</v>
       </c>
       <c r="D19" t="n">
-        <v>49.10603983890425</v>
+        <v>358.4475949563066</v>
       </c>
       <c r="E19" t="n">
-        <v>49.10603983890425</v>
+        <v>358.4475949563066</v>
       </c>
       <c r="F19" t="n">
-        <v>49.10603983890425</v>
+        <v>358.4475949563066</v>
       </c>
       <c r="G19" t="n">
-        <v>49.10603983890425</v>
+        <v>189.2173955045531</v>
       </c>
       <c r="H19" t="n">
-        <v>49.10603983890425</v>
+        <v>185.4455196246653</v>
       </c>
       <c r="I19" t="n">
-        <v>49.10603983890425</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="J19" t="n">
-        <v>49.10603983890425</v>
+        <v>42.18787671600101</v>
       </c>
       <c r="K19" t="n">
-        <v>94.61295399245029</v>
+        <v>72.25456008701794</v>
       </c>
       <c r="L19" t="n">
-        <v>208.3725712297701</v>
+        <v>166.2559978081029</v>
       </c>
       <c r="M19" t="n">
-        <v>338.705260425729</v>
+        <v>275.7564570053804</v>
       </c>
       <c r="N19" t="n">
-        <v>471.3735460023451</v>
+        <v>388.08785645036</v>
       </c>
       <c r="O19" t="n">
-        <v>577.897885202117</v>
+        <v>475.8277896871615</v>
       </c>
       <c r="P19" t="n">
-        <v>645.5271778068973</v>
+        <v>527.3837778842135</v>
       </c>
       <c r="Q19" t="n">
-        <v>645.5271778068973</v>
+        <v>527.3837778842135</v>
       </c>
       <c r="R19" t="n">
-        <v>645.5271778068973</v>
+        <v>527.3837778842135</v>
       </c>
       <c r="S19" t="n">
-        <v>645.5271778068973</v>
+        <v>527.3837778842135</v>
       </c>
       <c r="T19" t="n">
-        <v>417.8139201001485</v>
+        <v>527.3837778842135</v>
       </c>
       <c r="U19" t="n">
-        <v>128.6351386435417</v>
+        <v>527.3837778842135</v>
       </c>
       <c r="V19" t="n">
-        <v>128.6351386435417</v>
+        <v>527.3837778842135</v>
       </c>
       <c r="W19" t="n">
-        <v>128.6351386435417</v>
+        <v>527.3837778842135</v>
       </c>
       <c r="X19" t="n">
-        <v>128.6351386435417</v>
+        <v>527.3837778842135</v>
       </c>
       <c r="Y19" t="n">
-        <v>128.6351386435417</v>
+        <v>527.3837778842135</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2000.397336078624</v>
+        <v>1145.602742248684</v>
       </c>
       <c r="C20" t="n">
-        <v>1631.434819138212</v>
+        <v>1145.602742248684</v>
       </c>
       <c r="D20" t="n">
-        <v>1273.169120531462</v>
+        <v>871.6512250791529</v>
       </c>
       <c r="E20" t="n">
-        <v>887.3808679332174</v>
+        <v>871.6512250791529</v>
       </c>
       <c r="F20" t="n">
-        <v>476.3949631436098</v>
+        <v>460.6653202895453</v>
       </c>
       <c r="G20" t="n">
-        <v>58.21980644437224</v>
+        <v>42.187876716001</v>
       </c>
       <c r="H20" t="n">
-        <v>58.21980644437224</v>
+        <v>42.187876716001</v>
       </c>
       <c r="I20" t="n">
-        <v>49.10603983890425</v>
+        <v>42.187876716001</v>
       </c>
       <c r="J20" t="n">
-        <v>147.2929132168158</v>
+        <v>115.2290882856225</v>
       </c>
       <c r="K20" t="n">
-        <v>415.194388336768</v>
+        <v>345.4437346953282</v>
       </c>
       <c r="L20" t="n">
-        <v>799.8264852341945</v>
+        <v>683.3219880803406</v>
       </c>
       <c r="M20" t="n">
-        <v>1244.410349176442</v>
+        <v>1075.88319261382</v>
       </c>
       <c r="N20" t="n">
-        <v>1681.556047289582</v>
+        <v>1460.164450300942</v>
       </c>
       <c r="O20" t="n">
-        <v>2049.152696194593</v>
+        <v>1777.842707170706</v>
       </c>
       <c r="P20" t="n">
-        <v>2325.213548478439</v>
+        <v>2011.299366755286</v>
       </c>
       <c r="Q20" t="n">
-        <v>2455.301991945213</v>
+        <v>2109.39383580005</v>
       </c>
       <c r="R20" t="n">
-        <v>2386.997176142746</v>
+        <v>2109.39383580005</v>
       </c>
       <c r="S20" t="n">
-        <v>2386.997176142746</v>
+        <v>2109.39383580005</v>
       </c>
       <c r="T20" t="n">
-        <v>2386.997176142746</v>
+        <v>1888.51072949461</v>
       </c>
       <c r="U20" t="n">
-        <v>2386.997176142746</v>
+        <v>1888.51072949461</v>
       </c>
       <c r="V20" t="n">
-        <v>2386.997176142746</v>
+        <v>1888.51072949461</v>
       </c>
       <c r="W20" t="n">
-        <v>2386.997176142746</v>
+        <v>1535.742074224496</v>
       </c>
       <c r="X20" t="n">
-        <v>2386.997176142746</v>
+        <v>1535.742074224496</v>
       </c>
       <c r="Y20" t="n">
-        <v>2386.997176142746</v>
+        <v>1145.602742248684</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>794.3005707992618</v>
+        <v>524.8127706638347</v>
       </c>
       <c r="C21" t="n">
-        <v>619.8475415181348</v>
+        <v>350.3597413827077</v>
       </c>
       <c r="D21" t="n">
-        <v>470.9131318568835</v>
+        <v>201.4253317214565</v>
       </c>
       <c r="E21" t="n">
-        <v>311.675676851428</v>
+        <v>42.187876716001</v>
       </c>
       <c r="F21" t="n">
-        <v>165.141118878313</v>
+        <v>42.187876716001</v>
       </c>
       <c r="G21" t="n">
-        <v>49.10603983890425</v>
+        <v>42.187876716001</v>
       </c>
       <c r="H21" t="n">
-        <v>49.10603983890425</v>
+        <v>42.187876716001</v>
       </c>
       <c r="I21" t="n">
-        <v>49.10603983890425</v>
+        <v>42.187876716001</v>
       </c>
       <c r="J21" t="n">
-        <v>87.5866799621877</v>
+        <v>91.99734226147157</v>
       </c>
       <c r="K21" t="n">
-        <v>324.9372005630943</v>
+        <v>303.7504955284375</v>
       </c>
       <c r="L21" t="n">
-        <v>705.4886626713501</v>
+        <v>649.8831383448787</v>
       </c>
       <c r="M21" t="n">
-        <v>1201.553491139127</v>
+        <v>1105.782828129934</v>
       </c>
       <c r="N21" t="n">
-        <v>1726.454692916937</v>
+        <v>1589.455839519192</v>
       </c>
       <c r="O21" t="n">
-        <v>2140.221066519054</v>
+        <v>1686.892462576444</v>
       </c>
       <c r="P21" t="n">
-        <v>2455.301991945213</v>
+        <v>1971.703181875403</v>
       </c>
       <c r="Q21" t="n">
-        <v>2455.301991945213</v>
+        <v>2109.39383580005</v>
       </c>
       <c r="R21" t="n">
-        <v>2455.301991945213</v>
+        <v>2042.11756752523</v>
       </c>
       <c r="S21" t="n">
-        <v>2295.02858090153</v>
+        <v>1878.839948962383</v>
       </c>
       <c r="T21" t="n">
-        <v>2095.694235349243</v>
+        <v>1678.853686831558</v>
       </c>
       <c r="U21" t="n">
-        <v>1867.517171749761</v>
+        <v>1598.029371614334</v>
       </c>
       <c r="V21" t="n">
-        <v>1632.365063518018</v>
+        <v>1362.877263382591</v>
       </c>
       <c r="W21" t="n">
-        <v>1378.127706789817</v>
+        <v>1108.63990665439</v>
       </c>
       <c r="X21" t="n">
-        <v>1170.276206584284</v>
+        <v>900.7884064488567</v>
       </c>
       <c r="Y21" t="n">
-        <v>962.5159078193299</v>
+        <v>693.0281076839028</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>101.6639081444036</v>
+        <v>309.0801251806053</v>
       </c>
       <c r="C22" t="n">
-        <v>101.6639081444036</v>
+        <v>309.0801251806053</v>
       </c>
       <c r="D22" t="n">
-        <v>101.6639081444036</v>
+        <v>190.1009702983941</v>
       </c>
       <c r="E22" t="n">
-        <v>49.10603983890425</v>
+        <v>42.187876716001</v>
       </c>
       <c r="F22" t="n">
-        <v>49.10603983890425</v>
+        <v>42.187876716001</v>
       </c>
       <c r="G22" t="n">
-        <v>49.10603983890425</v>
+        <v>42.187876716001</v>
       </c>
       <c r="H22" t="n">
-        <v>49.10603983890425</v>
+        <v>42.187876716001</v>
       </c>
       <c r="I22" t="n">
-        <v>49.10603983890425</v>
+        <v>42.187876716001</v>
       </c>
       <c r="J22" t="n">
-        <v>49.10603983890425</v>
+        <v>42.187876716001</v>
       </c>
       <c r="K22" t="n">
-        <v>94.61295399245029</v>
+        <v>72.25456008701792</v>
       </c>
       <c r="L22" t="n">
-        <v>208.3725712297701</v>
+        <v>166.2559978081029</v>
       </c>
       <c r="M22" t="n">
-        <v>338.705260425729</v>
+        <v>275.7564570053804</v>
       </c>
       <c r="N22" t="n">
-        <v>471.3735460023451</v>
+        <v>388.08785645036</v>
       </c>
       <c r="O22" t="n">
-        <v>577.897885202117</v>
+        <v>475.8277896871615</v>
       </c>
       <c r="P22" t="n">
-        <v>645.5271778068973</v>
+        <v>527.3837778842135</v>
       </c>
       <c r="Q22" t="n">
-        <v>645.5271778068973</v>
+        <v>527.3837778842135</v>
       </c>
       <c r="R22" t="n">
-        <v>645.5271778068973</v>
+        <v>527.3837778842135</v>
       </c>
       <c r="S22" t="n">
-        <v>645.5271778068973</v>
+        <v>309.0801251806053</v>
       </c>
       <c r="T22" t="n">
-        <v>645.5271778068973</v>
+        <v>309.0801251806053</v>
       </c>
       <c r="U22" t="n">
-        <v>356.3483963502905</v>
+        <v>309.0801251806053</v>
       </c>
       <c r="V22" t="n">
-        <v>101.6639081444036</v>
+        <v>309.0801251806053</v>
       </c>
       <c r="W22" t="n">
-        <v>101.6639081444036</v>
+        <v>309.0801251806053</v>
       </c>
       <c r="X22" t="n">
-        <v>101.6639081444036</v>
+        <v>309.0801251806053</v>
       </c>
       <c r="Y22" t="n">
-        <v>101.6639081444036</v>
+        <v>309.0801251806053</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1721.819089287443</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C23" t="n">
-        <v>1721.819089287443</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D23" t="n">
-        <v>1363.553390680693</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E23" t="n">
-        <v>1363.553390680693</v>
+        <v>737.1647017090463</v>
       </c>
       <c r="F23" t="n">
-        <v>952.5674858910851</v>
+        <v>326.1787969194388</v>
       </c>
       <c r="G23" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2525.27842902086</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2306.643761992922</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U23" t="n">
-        <v>2052.881976631014</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V23" t="n">
-        <v>1721.819089287443</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W23" t="n">
-        <v>1721.819089287443</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X23" t="n">
-        <v>1721.819089287443</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y23" t="n">
-        <v>1721.819089287443</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
         <v>221.4284102424006</v>
@@ -6071,40 +6071,40 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>500.1394333084171</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C25" t="n">
-        <v>500.1394333084171</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D25" t="n">
-        <v>500.1394333084171</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E25" t="n">
-        <v>500.1394333084171</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
         <v>53.94298182036445</v>
@@ -6174,25 +6174,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064344</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W25" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X25" t="n">
-        <v>500.1394333084171</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y25" t="n">
-        <v>500.1394333084171</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1721.819089287443</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C26" t="n">
-        <v>1721.819089287443</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D26" t="n">
-        <v>1363.553390680693</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E26" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F26" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036445</v>
@@ -6253,25 +6253,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>2095.284847548523</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V26" t="n">
-        <v>2095.284847548523</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W26" t="n">
-        <v>2095.284847548523</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X26" t="n">
-        <v>1721.819089287443</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y26" t="n">
-        <v>1721.819089287443</v>
+        <v>1268.68094731003</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I27" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O27" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P27" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
@@ -6341,7 +6341,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C28" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D28" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E28" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
         <v>53.94298182036445</v>
@@ -6411,25 +6411,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064344</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064344</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U28" t="n">
-        <v>672.9459318256204</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V28" t="n">
-        <v>418.2614436197335</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W28" t="n">
-        <v>418.2614436197335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X28" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y28" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1834.613306652565</v>
+        <v>976.6605612216329</v>
       </c>
       <c r="C29" t="n">
-        <v>1834.613306652565</v>
+        <v>976.6605612216329</v>
       </c>
       <c r="D29" t="n">
-        <v>1749.341643278937</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="E29" t="n">
-        <v>1363.553390680693</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="F29" t="n">
-        <v>952.5674858910851</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G29" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H29" t="n">
         <v>207.4089578252748</v>
@@ -6466,16 +6466,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6490,25 +6490,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T29" t="n">
-        <v>2478.514423990285</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U29" t="n">
-        <v>2224.752638628377</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V29" t="n">
-        <v>2224.752638628377</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W29" t="n">
-        <v>2224.752638628377</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X29" t="n">
-        <v>2224.752638628377</v>
+        <v>1209.912517095719</v>
       </c>
       <c r="Y29" t="n">
-        <v>1834.613306652565</v>
+        <v>976.6605612216329</v>
       </c>
     </row>
     <row r="30">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>473.4444960005476</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C31" t="n">
-        <v>473.4444960005476</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D31" t="n">
-        <v>473.4444960005476</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
-        <v>473.4444960005476</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
         <v>53.94298182036445</v>
@@ -6648,25 +6648,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064344</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064344</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="V31" t="n">
-        <v>473.4444960005476</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="W31" t="n">
-        <v>473.4444960005476</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X31" t="n">
-        <v>473.4444960005476</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y31" t="n">
-        <v>473.4444960005476</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>159.5099885583426</v>
+        <v>1271.984870679801</v>
       </c>
       <c r="C32" t="n">
-        <v>53.94298182036445</v>
+        <v>903.0223537393897</v>
       </c>
       <c r="D32" t="n">
-        <v>53.94298182036445</v>
+        <v>544.7566551326393</v>
       </c>
       <c r="E32" t="n">
-        <v>53.94298182036445</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F32" t="n">
         <v>53.94298182036445</v>
@@ -6718,34 +6718,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U32" t="n">
-        <v>1993.546461473041</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V32" t="n">
-        <v>1662.48357412947</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W32" t="n">
-        <v>1309.714918859356</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X32" t="n">
-        <v>936.2491605982761</v>
+        <v>1662.124202655613</v>
       </c>
       <c r="Y32" t="n">
-        <v>546.1098286224644</v>
+        <v>1271.984870679801</v>
       </c>
     </row>
     <row r="33">
@@ -6761,43 +6761,43 @@
         <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E33" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F33" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I33" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2022.963088632153</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="C34" t="n">
-        <v>2022.963088632153</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="D34" t="n">
-        <v>2022.963088632153</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632153</v>
+        <v>138.6192801108058</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>138.6192801108058</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018222</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T34" t="n">
-        <v>2697.149091018222</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="U34" t="n">
-        <v>2697.149091018222</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="V34" t="n">
-        <v>2442.464602812336</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="W34" t="n">
-        <v>2442.464602812336</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="X34" t="n">
-        <v>2214.475051914318</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="Y34" t="n">
-        <v>2204.611553462393</v>
+        <v>286.5323736931989</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>903.5661947296837</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C35" t="n">
-        <v>534.603677789272</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D35" t="n">
-        <v>534.603677789272</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E35" t="n">
-        <v>534.603677789272</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F35" t="n">
-        <v>534.603677789272</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2465.942913862886</v>
+        <v>2637.52054463898</v>
       </c>
       <c r="T35" t="n">
-        <v>2307.532910392606</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="U35" t="n">
-        <v>2053.771125030697</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="V35" t="n">
-        <v>2053.771125030697</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="W35" t="n">
-        <v>2053.771125030697</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="X35" t="n">
-        <v>1680.305366769617</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y35" t="n">
-        <v>1290.166034793805</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="36">
@@ -6998,49 +6998,49 @@
         <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E36" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F36" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I36" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
         <v>2488.762748073963</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2066.718496146435</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C37" t="n">
-        <v>2022.963088632153</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D37" t="n">
-        <v>2022.963088632153</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E37" t="n">
-        <v>2022.963088632153</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F37" t="n">
-        <v>2022.963088632153</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.149091018222</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="T37" t="n">
-        <v>2697.149091018222</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="U37" t="n">
-        <v>2697.149091018222</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="V37" t="n">
-        <v>2697.149091018222</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="W37" t="n">
-        <v>2697.149091018222</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="X37" t="n">
-        <v>2469.159540120205</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="Y37" t="n">
-        <v>2248.366960976675</v>
+        <v>667.8624625746712</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>744.3346612638211</v>
+        <v>1547.452423968253</v>
       </c>
       <c r="C38" t="n">
-        <v>744.3346612638211</v>
+        <v>1547.452423968253</v>
       </c>
       <c r="D38" t="n">
-        <v>744.3346612638211</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E38" t="n">
-        <v>381.1377017843616</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F38" t="n">
-        <v>381.1377017843616</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
         <v>463.9616490733127</v>
@@ -7201,25 +7201,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U38" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V38" t="n">
-        <v>2247.308246834948</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W38" t="n">
-        <v>1894.539591564834</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X38" t="n">
-        <v>1521.073833303755</v>
+        <v>1937.591755944065</v>
       </c>
       <c r="Y38" t="n">
-        <v>1130.934501327943</v>
+        <v>1547.452423968253</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
         <v>221.4284102424006</v>
@@ -7265,13 +7265,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7280,16 +7280,16 @@
         <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T40" t="n">
-        <v>2697.149091018222</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U40" t="n">
-        <v>2697.149091018222</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V40" t="n">
-        <v>2697.149091018222</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W40" t="n">
-        <v>2407.731920981262</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X40" t="n">
-        <v>2179.742370083244</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y40" t="n">
-        <v>2179.742370083244</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="41">
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>534.603677789272</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C41" t="n">
-        <v>534.603677789272</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D41" t="n">
-        <v>534.603677789272</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E41" t="n">
-        <v>534.603677789272</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F41" t="n">
-        <v>534.603677789272</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G41" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
         <v>463.9616490733127</v>
@@ -7423,7 +7423,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7438,25 +7438,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U41" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V41" t="n">
-        <v>1664.11150509932</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W41" t="n">
-        <v>1311.342849829206</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X41" t="n">
-        <v>1311.342849829206</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="Y41" t="n">
-        <v>921.2035178533938</v>
+        <v>1568.149526959219</v>
       </c>
     </row>
     <row r="42">
@@ -7493,22 +7493,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G43" t="n">
         <v>53.94298182036445</v>
@@ -7593,28 +7593,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R43" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S43" t="n">
-        <v>365.6939024587812</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T43" t="n">
-        <v>365.6939024587812</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U43" t="n">
-        <v>235.5914466506042</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="V43" t="n">
-        <v>235.5914466506042</v>
+        <v>222.942782082032</v>
       </c>
       <c r="W43" t="n">
-        <v>235.5914466506042</v>
+        <v>222.942782082032</v>
       </c>
       <c r="X43" t="n">
-        <v>235.5914466506042</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y43" t="n">
-        <v>235.5914466506042</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1303.85528118563</v>
+        <v>1192.157102157134</v>
       </c>
       <c r="C44" t="n">
-        <v>1303.85528118563</v>
+        <v>823.1945852167225</v>
       </c>
       <c r="D44" t="n">
-        <v>945.5895825788796</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E44" t="n">
-        <v>945.5895825788796</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F44" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G44" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036446</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2575.426714829091</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548716</v>
+        <v>2321.664929467182</v>
       </c>
       <c r="V44" t="n">
-        <v>2642.120401548716</v>
+        <v>2321.664929467182</v>
       </c>
       <c r="W44" t="n">
-        <v>2454.060211486643</v>
+        <v>1968.896274197068</v>
       </c>
       <c r="X44" t="n">
-        <v>2080.594453225563</v>
+        <v>1968.896274197068</v>
       </c>
       <c r="Y44" t="n">
-        <v>1690.455121249752</v>
+        <v>1578.756942221256</v>
       </c>
     </row>
     <row r="45">
@@ -7739,13 +7739,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036446</v>
+        <v>319.1723320447966</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G46" t="n">
         <v>53.94298182036446</v>
@@ -7839,19 +7839,19 @@
         <v>500.8207968750363</v>
       </c>
       <c r="U46" t="n">
-        <v>211.6471865296043</v>
+        <v>500.8207968750363</v>
       </c>
       <c r="V46" t="n">
-        <v>53.94298182036446</v>
+        <v>500.8207968750363</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036446</v>
+        <v>500.8207968750363</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036446</v>
+        <v>500.8207968750363</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036446</v>
+        <v>500.8207968750363</v>
       </c>
     </row>
   </sheetData>
@@ -8060,10 +8060,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
@@ -8072,13 +8072,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P3" t="n">
-        <v>168.5314335381781</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N6" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>142.5962444444444</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,19 +8540,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>357.7767872515269</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,13 +8774,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>89.41205144475555</v>
       </c>
       <c r="M12" t="n">
-        <v>354.6541654994895</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>111.7499598249992</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>75.77844388033753</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>172.4310032246999</v>
       </c>
       <c r="L15" t="n">
-        <v>344.269224767929</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>50.55659572925433</v>
+        <v>70.99581912509474</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>99.51991480487777</v>
+        <v>75.77844388033755</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>172.4310032247</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>50.55659572925431</v>
+        <v>70.99581912509476</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>99.51991480487777</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9494,13 +9494,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>112.4340254180252</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>50.55659572925431</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,7 +9719,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11141,7 +11141,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K42" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451758</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.64146763747117</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200386</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22558,13 +22558,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>326.5413387258914</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22594,16 +22594,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>161.0450729393632</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22637,16 +22637,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>101.9362516896722</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -22676,25 +22676,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22725,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,7 +22746,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -22761,7 +22761,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
-        <v>142.3976559772408</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22798,7 +22798,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>214.9666412263055</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22807,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22862,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -22883,10 +22883,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>20.3398840379939</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22962,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,7 +22983,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -22992,7 +22992,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23020,22 +23020,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23044,7 +23044,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23086,10 +23086,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>358.5380445222895</v>
       </c>
       <c r="Y8" t="n">
-        <v>185.9018423672239</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23102,7 +23102,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23120,10 +23120,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23153,19 +23153,19 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>137.8546536149586</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>121.6254758352847</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -23199,7 +23199,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -23223,10 +23223,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>106.5773279611251</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>78.52652791832753</v>
+        <v>26.9665364790684</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.1619485273195</v>
+        <v>414.2926691378088</v>
       </c>
       <c r="H11" t="n">
-        <v>338.0329468943008</v>
+        <v>329.1304393464753</v>
       </c>
       <c r="I11" t="n">
-        <v>205.0481221176458</v>
+        <v>171.5352284535379</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>141.0252816852793</v>
+        <v>86.42041023393334</v>
       </c>
       <c r="S11" t="n">
-        <v>205.8118405263978</v>
+        <v>186.0031364379248</v>
       </c>
       <c r="T11" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3343897888113</v>
+        <v>251.2648474376504</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>106.0023114483785</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>110.0814249536982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23336,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.2681884137393</v>
+        <v>136.8030829366063</v>
       </c>
       <c r="H12" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>86.80307722268741</v>
+        <v>70.78957724245153</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>199.8611009721718</v>
+        <v>172.0691276920968</v>
       </c>
       <c r="U12" t="n">
-        <v>50.17947915721973</v>
+        <v>225.9058271976456</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23430,19 +23430,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9278262653587</v>
+        <v>167.537897457236</v>
       </c>
       <c r="H13" t="n">
-        <v>161.6656840978772</v>
+        <v>158.1988625129318</v>
       </c>
       <c r="I13" t="n">
-        <v>153.551289182031</v>
+        <v>141.8250664795777</v>
       </c>
       <c r="J13" t="n">
-        <v>88.89425643449839</v>
+        <v>61.32628970022419</v>
       </c>
       <c r="K13" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23460,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>80.87383288310646</v>
+        <v>48.222612413851</v>
       </c>
       <c r="R13" t="n">
-        <v>174.4537986637794</v>
+        <v>156.9211815276446</v>
       </c>
       <c r="S13" t="n">
-        <v>222.9160118599466</v>
+        <v>216.1206161765721</v>
       </c>
       <c r="T13" t="n">
-        <v>52.54455953715794</v>
+        <v>226.0096940321479</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3155846423218</v>
+        <v>286.2943157982424</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>58.31669950388854</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23506,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>326.065601849496</v>
+        <v>329.1304393464753</v>
       </c>
       <c r="I14" t="n">
-        <v>159.9978528790433</v>
+        <v>171.5352284535379</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>179.1836579111419</v>
+        <v>186.0031364379248</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>49.96641769616321</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>14.05134107376091</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23573,10 +23573,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23588,13 +23588,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.8030829366063</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>65.27666136637444</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>66.6035055920714</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>161.6448423772187</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>67.80768517458878</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>17.36661014380164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23664,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>17.16124810725017</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.537897457236</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>158.1988625129318</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>141.8250664795777</v>
       </c>
       <c r="J16" t="n">
-        <v>51.8355549034514</v>
+        <v>61.32628970022419</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>36.98188228487142</v>
+        <v>48.222612413851</v>
       </c>
       <c r="R16" t="n">
-        <v>150.8852840987083</v>
+        <v>156.9211815276446</v>
       </c>
       <c r="S16" t="n">
-        <v>213.7811872701283</v>
+        <v>216.1206161765721</v>
       </c>
       <c r="T16" t="n">
-        <v>225.4361251296812</v>
+        <v>226.0096940321479</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2869936420407</v>
+        <v>92.47337197830296</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>337.2017398575575</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.9934051322452</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>326.065601849496</v>
+        <v>329.1304393464753</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>171.5352284535379</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>86.42041023393335</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -23788,19 +23788,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>149.5491439001545</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23816,7 +23816,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -23828,10 +23828,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>104.1072427666596</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>70.78957724245153</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>66.6035055920714</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23870,7 +23870,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>175.6602542762553</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -23892,10 +23892,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>69.88166520162126</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4036579268715</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>157.0053510520544</v>
+        <v>154.464705391843</v>
       </c>
       <c r="I19" t="n">
-        <v>137.788117693706</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>51.83555490345139</v>
+        <v>61.32628970022419</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>36.98188228487142</v>
+        <v>48.22261241385101</v>
       </c>
       <c r="R19" t="n">
-        <v>150.8852840987083</v>
+        <v>156.9211815276446</v>
       </c>
       <c r="S19" t="n">
-        <v>213.7811872701283</v>
+        <v>216.1206161765721</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>226.0096940321479</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2943157982424</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>83.47103962284734</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>326.065601849496</v>
+        <v>329.1304393464753</v>
       </c>
       <c r="I20" t="n">
-        <v>150.97522393963</v>
+        <v>171.5352284535379</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>86.42041023393335</v>
       </c>
       <c r="S20" t="n">
-        <v>179.1836579111419</v>
+        <v>186.0031364379248</v>
       </c>
       <c r="T20" t="n">
-        <v>217.3642470580309</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2409063172053</v>
+        <v>251.2648474376504</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24059,16 +24059,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>21.76823432838844</v>
+        <v>136.8030829366063</v>
       </c>
       <c r="H21" t="n">
-        <v>105.4695617893551</v>
+        <v>107.0159873637655</v>
       </c>
       <c r="I21" t="n">
-        <v>65.27666136637444</v>
+        <v>70.78957724245153</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>56.66199767592526</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24104,7 +24104,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>145.8897551325938</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24132,25 +24132,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>30.82610968482334</v>
       </c>
       <c r="E22" t="n">
-        <v>94.40167302412479</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.4036579268715</v>
+        <v>167.537897457236</v>
       </c>
       <c r="H22" t="n">
-        <v>157.0053510520544</v>
+        <v>158.1988625129318</v>
       </c>
       <c r="I22" t="n">
-        <v>137.788117693706</v>
+        <v>141.8250664795777</v>
       </c>
       <c r="J22" t="n">
-        <v>51.83555490345139</v>
+        <v>61.32628970022419</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,22 +24171,22 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>36.98188228487142</v>
+        <v>48.22261241385101</v>
       </c>
       <c r="R22" t="n">
-        <v>150.8852840987083</v>
+        <v>156.9211815276446</v>
       </c>
       <c r="S22" t="n">
-        <v>213.7811872701283</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.4361251296812</v>
+        <v>226.0096940321479</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2943157982424</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>144.2707130727114</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>4.263757431582405</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24375,13 +24375,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>27.16725215060518</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
         <v>134.9656217923382</v>
@@ -24414,13 +24414,13 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>56.01837628787166</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24429,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24448,10 +24448,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>100.7210022147281</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>73.25720682577145</v>
       </c>
     </row>
     <row r="27">
@@ -24621,7 +24621,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
         <v>45.19995918853699</v>
@@ -24651,22 +24651,22 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>117.5062691663783</v>
       </c>
       <c r="T28" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>231.6506523849718</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24685,19 +24685,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>270.2640948807913</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>155.318502340708</v>
       </c>
     </row>
     <row r="30">
@@ -24849,13 +24849,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>53.59524008539599</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
         <v>134.9656217923382</v>
@@ -24888,22 +24888,22 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>281.9691557715221</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>260.7615551004092</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>302.9008792348212</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25083,13 +25083,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>83.480266951514</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
@@ -25125,25 +25125,25 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>208.8197898846887</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25156,25 +25156,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>115.3834518935216</v>
       </c>
       <c r="T35" t="n">
-        <v>59.62241692208048</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>123.9289676594886</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
@@ -25362,7 +25362,7 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>152.4816825345733</v>
       </c>
       <c r="T37" t="n">
         <v>225.0351054580843</v>
@@ -25377,10 +25377,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>230.6305959739027</v>
       </c>
       <c r="E38" t="n">
-        <v>22.36538018759694</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.62049154535694</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25602,16 +25602,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>35.43826180874018</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>86.25994781078305</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25636,19 +25636,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>1.611651660151608</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25833,7 +25833,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,10 +25842,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>157.4804429918825</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>250.4307164126663</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,25 +25912,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>95.94316793041681</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>163.0613805559611</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>71.97956663549095</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>96.01048066168062</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>440385.3271531031</v>
+        <v>440385.327153103</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>469065.4218355754</v>
+        <v>653040.755337421</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>716374.156975351</v>
+        <v>653040.7553374209</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>716374.156975351</v>
+        <v>653040.755337421</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>716374.156975351</v>
+        <v>653040.7553374207</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>760654.6955762716</v>
+        <v>760654.695576272</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>760654.6955762719</v>
+        <v>760654.695576272</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>760654.6955762716</v>
+        <v>760654.695576272</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>760654.6955762716</v>
+        <v>760654.695576272</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>760654.6955762719</v>
+        <v>760654.695576272</v>
       </c>
     </row>
     <row r="16">
@@ -26322,19 +26322,19 @@
         <v>149544.6052781992</v>
       </c>
       <c r="E2" t="n">
-        <v>159463.6497950858</v>
+        <v>223045.8084776439</v>
       </c>
       <c r="F2" t="n">
-        <v>244933.927889552</v>
+        <v>223045.8084776439</v>
       </c>
       <c r="G2" t="n">
-        <v>244933.9278895519</v>
+        <v>223045.8084776439</v>
       </c>
       <c r="H2" t="n">
-        <v>244933.927889552</v>
+        <v>223045.8084776439</v>
       </c>
       <c r="I2" t="n">
-        <v>260237.3490141817</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="J2" t="n">
         <v>260237.3490141817</v>
@@ -26343,19 +26343,19 @@
         <v>260237.3490141817</v>
       </c>
       <c r="L2" t="n">
+        <v>260237.3490141817</v>
+      </c>
+      <c r="M2" t="n">
         <v>260237.3490141816</v>
-      </c>
-      <c r="M2" t="n">
-        <v>260237.3490141818</v>
       </c>
       <c r="N2" t="n">
         <v>260237.3490141817</v>
       </c>
       <c r="O2" t="n">
-        <v>260237.3490141817</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="P2" t="n">
-        <v>260237.3490141818</v>
+        <v>260237.3490141816</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>38628.88112923561</v>
+        <v>287351.7100134254</v>
       </c>
       <c r="F3" t="n">
-        <v>326513.6777659219</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>55256.55893426032</v>
+        <v>134288.7015116924</v>
       </c>
       <c r="J3" t="n">
         <v>63059.94259910623</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8757.582995213634</v>
+        <v>71355.62051871081</v>
       </c>
       <c r="N3" t="n">
-        <v>82704.25131371449</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8547.111069342402</v>
+        <v>8547.111069342403</v>
       </c>
       <c r="C4" t="n">
-        <v>8547.111069342402</v>
+        <v>8547.111069342403</v>
       </c>
       <c r="D4" t="n">
         <v>8547.111069342402</v>
       </c>
       <c r="E4" t="n">
-        <v>8599.193178783524</v>
+        <v>9085.960889837486</v>
       </c>
       <c r="F4" t="n">
-        <v>9253.72390068747</v>
+        <v>9085.960889837486</v>
       </c>
       <c r="G4" t="n">
-        <v>9253.72390068747</v>
+        <v>9085.960889837486</v>
       </c>
       <c r="H4" t="n">
-        <v>9253.72390068747</v>
+        <v>9085.960889837486</v>
       </c>
       <c r="I4" t="n">
         <v>9371.018034361483</v>
       </c>
       <c r="J4" t="n">
+        <v>9371.018034361483</v>
+      </c>
+      <c r="K4" t="n">
         <v>9371.018034361481</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>9371.018034361483</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
+        <v>9371.018034361485</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9371.018034361485</v>
+      </c>
+      <c r="O4" t="n">
         <v>9371.018034361481</v>
       </c>
-      <c r="M4" t="n">
-        <v>9371.018034361483</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9371.018034361483</v>
-      </c>
-      <c r="O4" t="n">
-        <v>9371.018034361483</v>
-      </c>
       <c r="P4" t="n">
-        <v>9371.018034361483</v>
+        <v>9371.018034361485</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>17553.77951678014</v>
+        <v>37540.13459730637</v>
       </c>
       <c r="F5" t="n">
-        <v>44420.77245688339</v>
+        <v>37540.13459730637</v>
       </c>
       <c r="G5" t="n">
-        <v>44420.77245688339</v>
+        <v>37540.13459730637</v>
       </c>
       <c r="H5" t="n">
-        <v>44420.77245688339</v>
+        <v>37540.13459730636</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11946.79391354736</v>
+        <v>-271.21670649308</v>
       </c>
       <c r="C6" t="n">
-        <v>92716.22544509516</v>
+        <v>80498.2148250546</v>
       </c>
       <c r="D6" t="n">
-        <v>92716.2254450951</v>
+        <v>80498.21482505463</v>
       </c>
       <c r="E6" t="n">
-        <v>94681.79597028653</v>
+        <v>-119066.6074652189</v>
       </c>
       <c r="F6" t="n">
-        <v>-135254.2462339408</v>
+        <v>168285.1025482065</v>
       </c>
       <c r="G6" t="n">
-        <v>191259.4315319811</v>
+        <v>168285.1025482065</v>
       </c>
       <c r="H6" t="n">
-        <v>191259.4315319811</v>
+        <v>168285.1025482065</v>
       </c>
       <c r="I6" t="n">
-        <v>146378.2939821504</v>
+        <v>61277.73765889901</v>
       </c>
       <c r="J6" t="n">
-        <v>138574.9103173045</v>
+        <v>132506.4965714853</v>
       </c>
       <c r="K6" t="n">
-        <v>201634.8529164107</v>
+        <v>195566.4391705916</v>
       </c>
       <c r="L6" t="n">
-        <v>201634.8529164107</v>
+        <v>195566.4391705916</v>
       </c>
       <c r="M6" t="n">
-        <v>192877.2699211972</v>
+        <v>124210.8186518807</v>
       </c>
       <c r="N6" t="n">
-        <v>118930.6016026963</v>
+        <v>195566.4391705915</v>
       </c>
       <c r="O6" t="n">
-        <v>201634.8529164108</v>
+        <v>195566.4391705914</v>
       </c>
       <c r="P6" t="n">
-        <v>201634.8529164108</v>
+        <v>195566.4391705914</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>35.02126071912529</v>
+        <v>251.25450885989</v>
       </c>
       <c r="F3" t="n">
-        <v>325.6964302438607</v>
+        <v>251.25450885989</v>
       </c>
       <c r="G3" t="n">
-        <v>325.6964302438607</v>
+        <v>251.2545088598899</v>
       </c>
       <c r="H3" t="n">
-        <v>325.6964302438607</v>
+        <v>251.2545088598899</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170867</v>
@@ -26798,16 +26798,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>276.1565137023554</v>
+        <v>527.3484589500127</v>
       </c>
       <c r="F4" t="n">
-        <v>613.8254979863032</v>
+        <v>527.3484589500126</v>
       </c>
       <c r="G4" t="n">
-        <v>613.8254979863032</v>
+        <v>527.3484589500126</v>
       </c>
       <c r="H4" t="n">
-        <v>613.8254979863032</v>
+        <v>527.3484589500125</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545556</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>35.02126071912529</v>
+        <v>251.25450885989</v>
       </c>
       <c r="F3" t="n">
-        <v>290.6751695247354</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>52.04723397322596</v>
+        <v>126.4891553571968</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>35.14222482469637</v>
+        <v>286.3341700723536</v>
       </c>
       <c r="F4" t="n">
-        <v>337.6689842839478</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>60.46177476825244</v>
+        <v>146.9388138045431</v>
       </c>
       <c r="J4" t="n">
         <v>241.0142888776591</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>35.14222482469637</v>
+        <v>286.3341700723536</v>
       </c>
       <c r="N4" t="n">
-        <v>337.6689842839478</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>35.14222482469637</v>
+        <v>286.3341700723536</v>
       </c>
       <c r="N4" t="n">
-        <v>337.6689842839478</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.140788987815579</v>
+        <v>1.01006837732619</v>
       </c>
       <c r="H11" t="n">
-        <v>1.441855221466299</v>
+        <v>10.34436276929185</v>
       </c>
       <c r="I11" t="n">
-        <v>5.427767452760113</v>
+        <v>38.94066111686798</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461251</v>
+        <v>85.7282909400888</v>
       </c>
       <c r="K11" t="n">
-        <v>17.90888720884597</v>
+        <v>128.4844853523065</v>
       </c>
       <c r="L11" t="n">
-        <v>22.217558194707</v>
+        <v>159.3963654549029</v>
       </c>
       <c r="M11" t="n">
-        <v>24.7213143567723</v>
+        <v>177.3591689601775</v>
       </c>
       <c r="N11" t="n">
-        <v>25.12133106840331</v>
+        <v>180.2290257372555</v>
       </c>
       <c r="O11" t="n">
-        <v>23.72136057081215</v>
+        <v>170.1851583102182</v>
       </c>
       <c r="P11" t="n">
-        <v>20.24563243411504</v>
+        <v>145.2490952449779</v>
       </c>
       <c r="Q11" t="n">
-        <v>15.20362680796961</v>
+        <v>109.0760214819837</v>
       </c>
       <c r="R11" t="n">
-        <v>8.84383625587037</v>
+        <v>63.44870770721634</v>
       </c>
       <c r="S11" t="n">
-        <v>3.208229059847509</v>
+        <v>23.01693314832058</v>
       </c>
       <c r="T11" t="n">
-        <v>0.6163037941626972</v>
+        <v>4.421574321745399</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.08080547018609519</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0753287494713261</v>
+        <v>0.5404342266042916</v>
       </c>
       <c r="H12" t="n">
-        <v>0.727517133052018</v>
+        <v>5.219456872730922</v>
       </c>
       <c r="I12" t="n">
-        <v>2.593555628727676</v>
+        <v>18.60705560896355</v>
       </c>
       <c r="J12" t="n">
-        <v>7.116914878779982</v>
+        <v>51.05918278632916</v>
       </c>
       <c r="K12" t="n">
-        <v>12.16394109335883</v>
+        <v>87.2682759688167</v>
       </c>
       <c r="L12" t="n">
-        <v>16.35591992358772</v>
+        <v>117.3429666142345</v>
       </c>
       <c r="M12" t="n">
-        <v>19.08658709192328</v>
+        <v>136.93370732864</v>
       </c>
       <c r="N12" t="n">
-        <v>19.59175225833406</v>
+        <v>140.5579351026662</v>
       </c>
       <c r="O12" t="n">
-        <v>17.92262575689047</v>
+        <v>128.5830503973816</v>
       </c>
       <c r="P12" t="n">
-        <v>14.38448725650261</v>
+        <v>103.1992340258669</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.615648792164365</v>
+        <v>68.98595496092678</v>
       </c>
       <c r="R12" t="n">
-        <v>4.676990252263565</v>
+        <v>33.55432856057173</v>
       </c>
       <c r="S12" t="n">
-        <v>1.399198482504675</v>
+        <v>10.03832872661918</v>
       </c>
       <c r="T12" t="n">
-        <v>0.3036277226497748</v>
+        <v>2.17832918530414</v>
       </c>
       <c r="U12" t="n">
-        <v>0.004955838781008299</v>
+        <v>0.03555488332922973</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06315309310006199</v>
+        <v>0.4530819012227523</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5614884095623698</v>
+        <v>4.028309994507747</v>
       </c>
       <c r="I13" t="n">
-        <v>1.89918574522732</v>
+        <v>13.62540844768059</v>
       </c>
       <c r="J13" t="n">
-        <v>4.464923682174383</v>
+        <v>32.03289041644859</v>
       </c>
       <c r="K13" t="n">
-        <v>7.337241180170838</v>
+        <v>52.63987906933431</v>
       </c>
       <c r="L13" t="n">
-        <v>9.389142586894673</v>
+        <v>67.36092193269903</v>
       </c>
       <c r="M13" t="n">
-        <v>9.899534402948808</v>
+        <v>71.0226474798538</v>
       </c>
       <c r="N13" t="n">
-        <v>9.66414560139404</v>
+        <v>69.33388766620541</v>
       </c>
       <c r="O13" t="n">
-        <v>8.926402650179675</v>
+        <v>64.0410672746487</v>
       </c>
       <c r="P13" t="n">
-        <v>7.638079550938405</v>
+        <v>54.7981964897045</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.28821036858792</v>
+        <v>37.93943083784338</v>
       </c>
       <c r="R13" t="n">
-        <v>2.83959271339006</v>
+        <v>20.37220984952484</v>
       </c>
       <c r="S13" t="n">
-        <v>1.100586177025626</v>
+        <v>7.895981860400145</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2698359432457194</v>
+        <v>1.935895396133578</v>
       </c>
       <c r="U13" t="n">
-        <v>0.003444714169094295</v>
+        <v>0.02471355824851379</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.309332382889891</v>
+        <v>1.01006837732619</v>
       </c>
       <c r="H14" t="n">
-        <v>13.4092002662711</v>
+        <v>10.34436276929185</v>
       </c>
       <c r="I14" t="n">
-        <v>50.47803669136258</v>
+        <v>38.94066111686798</v>
       </c>
       <c r="J14" t="n">
-        <v>111.127949332301</v>
+        <v>85.7282909400888</v>
       </c>
       <c r="K14" t="n">
-        <v>166.5519891000301</v>
+        <v>128.4844853523065</v>
       </c>
       <c r="L14" t="n">
-        <v>206.6224700128967</v>
+        <v>159.3963654549029</v>
       </c>
       <c r="M14" t="n">
-        <v>229.9073097771148</v>
+        <v>177.3591689601775</v>
       </c>
       <c r="N14" t="n">
-        <v>233.6274504100007</v>
+        <v>180.2290257372555</v>
       </c>
       <c r="O14" t="n">
-        <v>220.6077765276393</v>
+        <v>170.1851583102182</v>
       </c>
       <c r="P14" t="n">
-        <v>188.2836333250451</v>
+        <v>145.2490952449779</v>
       </c>
       <c r="Q14" t="n">
-        <v>141.3931673628008</v>
+        <v>109.0760214819837</v>
       </c>
       <c r="R14" t="n">
-        <v>82.2473502967072</v>
+        <v>63.44870770721634</v>
       </c>
       <c r="S14" t="n">
-        <v>29.83641167510342</v>
+        <v>23.01693314832058</v>
       </c>
       <c r="T14" t="n">
-        <v>5.731602506100502</v>
+        <v>4.421574321745399</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1047465906311913</v>
+        <v>0.08080547018609519</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7005545858075494</v>
+        <v>0.5404342266042916</v>
       </c>
       <c r="H15" t="n">
-        <v>6.765882447141333</v>
+        <v>5.219456872730922</v>
       </c>
       <c r="I15" t="n">
-        <v>24.11997148504063</v>
+        <v>18.60705560896355</v>
       </c>
       <c r="J15" t="n">
-        <v>66.18704531965098</v>
+        <v>51.05918278632916</v>
       </c>
       <c r="K15" t="n">
-        <v>113.1242025687568</v>
+        <v>87.2682759688167</v>
       </c>
       <c r="L15" t="n">
-        <v>152.1094507473804</v>
+        <v>117.3429666142345</v>
       </c>
       <c r="M15" t="n">
-        <v>177.504554482904</v>
+        <v>136.93370732864</v>
       </c>
       <c r="N15" t="n">
-        <v>182.2025718587801</v>
+        <v>140.5579351026662</v>
       </c>
       <c r="O15" t="n">
-        <v>166.6797570890444</v>
+        <v>128.5830503973816</v>
       </c>
       <c r="P15" t="n">
-        <v>133.7751998109171</v>
+        <v>103.1992340258669</v>
       </c>
       <c r="Q15" t="n">
-        <v>89.42517835676719</v>
+        <v>68.98595496092678</v>
       </c>
       <c r="R15" t="n">
-        <v>43.49583647671786</v>
+        <v>33.55432856057173</v>
       </c>
       <c r="S15" t="n">
-        <v>13.01249417059197</v>
+        <v>10.03832872661918</v>
       </c>
       <c r="T15" t="n">
-        <v>2.823726598057621</v>
+        <v>2.17832918530414</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04608911748733879</v>
+        <v>0.03555488332922973</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5873214315872897</v>
+        <v>0.4530819012227523</v>
       </c>
       <c r="H16" t="n">
-        <v>5.22182145538518</v>
+        <v>4.028309994507747</v>
       </c>
       <c r="I16" t="n">
-        <v>17.66235723355232</v>
+        <v>13.62540844768059</v>
       </c>
       <c r="J16" t="n">
-        <v>41.52362521322138</v>
+        <v>32.03289041644859</v>
       </c>
       <c r="K16" t="n">
-        <v>68.23607177895964</v>
+        <v>52.63987906933431</v>
       </c>
       <c r="L16" t="n">
-        <v>87.31867901980488</v>
+        <v>67.36092193269903</v>
       </c>
       <c r="M16" t="n">
-        <v>92.0653040441785</v>
+        <v>71.0226474798538</v>
       </c>
       <c r="N16" t="n">
-        <v>89.87619689008049</v>
+        <v>69.33388766620541</v>
       </c>
       <c r="O16" t="n">
-        <v>83.01521471199257</v>
+        <v>64.0410672746487</v>
       </c>
       <c r="P16" t="n">
-        <v>71.03385750761181</v>
+        <v>54.7981964897045</v>
       </c>
       <c r="Q16" t="n">
-        <v>49.18016096682296</v>
+        <v>37.93943083784338</v>
       </c>
       <c r="R16" t="n">
-        <v>26.40810727846122</v>
+        <v>20.37220984952484</v>
       </c>
       <c r="S16" t="n">
-        <v>10.23541076684394</v>
+        <v>7.895981860400145</v>
       </c>
       <c r="T16" t="n">
-        <v>2.509464298600237</v>
+        <v>1.935895396133578</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03203571445021584</v>
+        <v>0.02471355824851379</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.309332382889891</v>
+        <v>1.01006837732619</v>
       </c>
       <c r="H17" t="n">
-        <v>13.4092002662711</v>
+        <v>10.34436276929184</v>
       </c>
       <c r="I17" t="n">
-        <v>50.47803669136259</v>
+        <v>38.94066111686797</v>
       </c>
       <c r="J17" t="n">
-        <v>111.127949332301</v>
+        <v>85.72829094008878</v>
       </c>
       <c r="K17" t="n">
-        <v>166.5519891000302</v>
+        <v>128.4844853523064</v>
       </c>
       <c r="L17" t="n">
-        <v>206.6224700128967</v>
+        <v>159.3963654549028</v>
       </c>
       <c r="M17" t="n">
-        <v>229.9073097771148</v>
+        <v>177.3591689601775</v>
       </c>
       <c r="N17" t="n">
-        <v>233.6274504100007</v>
+        <v>180.2290257372555</v>
       </c>
       <c r="O17" t="n">
-        <v>220.6077765276394</v>
+        <v>170.1851583102182</v>
       </c>
       <c r="P17" t="n">
-        <v>188.2836333250451</v>
+        <v>145.2490952449779</v>
       </c>
       <c r="Q17" t="n">
-        <v>141.3931673628009</v>
+        <v>109.0760214819837</v>
       </c>
       <c r="R17" t="n">
-        <v>82.24735029670721</v>
+        <v>63.44870770721633</v>
       </c>
       <c r="S17" t="n">
-        <v>29.83641167510343</v>
+        <v>23.01693314832058</v>
       </c>
       <c r="T17" t="n">
-        <v>5.731602506100502</v>
+        <v>4.421574321745398</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1047465906311913</v>
+        <v>0.08080547018609517</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7005545858075495</v>
+        <v>0.5404342266042915</v>
       </c>
       <c r="H18" t="n">
-        <v>6.765882447141334</v>
+        <v>5.219456872730921</v>
       </c>
       <c r="I18" t="n">
-        <v>24.11997148504063</v>
+        <v>18.60705560896355</v>
       </c>
       <c r="J18" t="n">
-        <v>66.18704531965099</v>
+        <v>51.05918278632915</v>
       </c>
       <c r="K18" t="n">
-        <v>113.1242025687568</v>
+        <v>87.26827596881668</v>
       </c>
       <c r="L18" t="n">
-        <v>152.1094507473804</v>
+        <v>117.3429666142344</v>
       </c>
       <c r="M18" t="n">
-        <v>177.5045544829041</v>
+        <v>136.93370732864</v>
       </c>
       <c r="N18" t="n">
-        <v>182.2025718587802</v>
+        <v>140.5579351026662</v>
       </c>
       <c r="O18" t="n">
-        <v>166.6797570890445</v>
+        <v>128.5830503973816</v>
       </c>
       <c r="P18" t="n">
-        <v>133.7751998109171</v>
+        <v>103.1992340258669</v>
       </c>
       <c r="Q18" t="n">
-        <v>89.4251783567672</v>
+        <v>68.98595496092676</v>
       </c>
       <c r="R18" t="n">
-        <v>43.49583647671787</v>
+        <v>33.55432856057173</v>
       </c>
       <c r="S18" t="n">
-        <v>13.01249417059197</v>
+        <v>10.03832872661918</v>
       </c>
       <c r="T18" t="n">
-        <v>2.823726598057622</v>
+        <v>2.178329185304139</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0460891174873388</v>
+        <v>0.03555488332922972</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5873214315872898</v>
+        <v>0.4530819012227522</v>
       </c>
       <c r="H19" t="n">
-        <v>5.22182145538518</v>
+        <v>4.028309994507746</v>
       </c>
       <c r="I19" t="n">
-        <v>17.66235723355232</v>
+        <v>13.62540844768059</v>
       </c>
       <c r="J19" t="n">
-        <v>41.52362521322139</v>
+        <v>32.03289041644858</v>
       </c>
       <c r="K19" t="n">
-        <v>68.23607177895965</v>
+        <v>52.63987906933429</v>
       </c>
       <c r="L19" t="n">
-        <v>87.3186790198049</v>
+        <v>67.36092193269901</v>
       </c>
       <c r="M19" t="n">
-        <v>92.06530404417852</v>
+        <v>71.02264747985379</v>
       </c>
       <c r="N19" t="n">
-        <v>89.87619689008051</v>
+        <v>69.3338876662054</v>
       </c>
       <c r="O19" t="n">
-        <v>83.01521471199258</v>
+        <v>64.04106727464868</v>
       </c>
       <c r="P19" t="n">
-        <v>71.03385750761181</v>
+        <v>54.79819648970449</v>
       </c>
       <c r="Q19" t="n">
-        <v>49.18016096682297</v>
+        <v>37.93943083784337</v>
       </c>
       <c r="R19" t="n">
-        <v>26.40810727846122</v>
+        <v>20.37220984952484</v>
       </c>
       <c r="S19" t="n">
-        <v>10.23541076684395</v>
+        <v>7.895981860400143</v>
       </c>
       <c r="T19" t="n">
-        <v>2.509464298600237</v>
+        <v>1.935895396133577</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03203571445021584</v>
+        <v>0.02471355824851379</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.309332382889891</v>
+        <v>1.01006837732619</v>
       </c>
       <c r="H20" t="n">
-        <v>13.4092002662711</v>
+        <v>10.34436276929184</v>
       </c>
       <c r="I20" t="n">
-        <v>50.47803669136259</v>
+        <v>38.94066111686797</v>
       </c>
       <c r="J20" t="n">
-        <v>111.127949332301</v>
+        <v>85.72829094008878</v>
       </c>
       <c r="K20" t="n">
-        <v>166.5519891000302</v>
+        <v>128.4844853523064</v>
       </c>
       <c r="L20" t="n">
-        <v>206.6224700128967</v>
+        <v>159.3963654549028</v>
       </c>
       <c r="M20" t="n">
-        <v>229.9073097771148</v>
+        <v>177.3591689601775</v>
       </c>
       <c r="N20" t="n">
-        <v>233.6274504100007</v>
+        <v>180.2290257372555</v>
       </c>
       <c r="O20" t="n">
-        <v>220.6077765276394</v>
+        <v>170.1851583102182</v>
       </c>
       <c r="P20" t="n">
-        <v>188.2836333250451</v>
+        <v>145.2490952449779</v>
       </c>
       <c r="Q20" t="n">
-        <v>141.3931673628009</v>
+        <v>109.0760214819837</v>
       </c>
       <c r="R20" t="n">
-        <v>82.24735029670721</v>
+        <v>63.44870770721633</v>
       </c>
       <c r="S20" t="n">
-        <v>29.83641167510343</v>
+        <v>23.01693314832058</v>
       </c>
       <c r="T20" t="n">
-        <v>5.731602506100502</v>
+        <v>4.421574321745398</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1047465906311913</v>
+        <v>0.08080547018609517</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7005545858075495</v>
+        <v>0.5404342266042915</v>
       </c>
       <c r="H21" t="n">
-        <v>6.765882447141334</v>
+        <v>5.219456872730921</v>
       </c>
       <c r="I21" t="n">
-        <v>24.11997148504063</v>
+        <v>18.60705560896355</v>
       </c>
       <c r="J21" t="n">
-        <v>66.18704531965099</v>
+        <v>51.05918278632915</v>
       </c>
       <c r="K21" t="n">
-        <v>113.1242025687568</v>
+        <v>87.26827596881668</v>
       </c>
       <c r="L21" t="n">
-        <v>152.1094507473804</v>
+        <v>117.3429666142344</v>
       </c>
       <c r="M21" t="n">
-        <v>177.5045544829041</v>
+        <v>136.93370732864</v>
       </c>
       <c r="N21" t="n">
-        <v>182.2025718587802</v>
+        <v>140.5579351026662</v>
       </c>
       <c r="O21" t="n">
-        <v>166.6797570890445</v>
+        <v>128.5830503973816</v>
       </c>
       <c r="P21" t="n">
-        <v>133.7751998109171</v>
+        <v>103.1992340258669</v>
       </c>
       <c r="Q21" t="n">
-        <v>89.4251783567672</v>
+        <v>68.98595496092676</v>
       </c>
       <c r="R21" t="n">
-        <v>43.49583647671787</v>
+        <v>33.55432856057173</v>
       </c>
       <c r="S21" t="n">
-        <v>13.01249417059197</v>
+        <v>10.03832872661918</v>
       </c>
       <c r="T21" t="n">
-        <v>2.823726598057622</v>
+        <v>2.178329185304139</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0460891174873388</v>
+        <v>0.03555488332922972</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5873214315872898</v>
+        <v>0.4530819012227522</v>
       </c>
       <c r="H22" t="n">
-        <v>5.22182145538518</v>
+        <v>4.028309994507746</v>
       </c>
       <c r="I22" t="n">
-        <v>17.66235723355232</v>
+        <v>13.62540844768059</v>
       </c>
       <c r="J22" t="n">
-        <v>41.52362521322139</v>
+        <v>32.03289041644858</v>
       </c>
       <c r="K22" t="n">
-        <v>68.23607177895965</v>
+        <v>52.63987906933429</v>
       </c>
       <c r="L22" t="n">
-        <v>87.3186790198049</v>
+        <v>67.36092193269901</v>
       </c>
       <c r="M22" t="n">
-        <v>92.06530404417852</v>
+        <v>71.02264747985379</v>
       </c>
       <c r="N22" t="n">
-        <v>89.87619689008051</v>
+        <v>69.3338876662054</v>
       </c>
       <c r="O22" t="n">
-        <v>83.01521471199258</v>
+        <v>64.04106727464868</v>
       </c>
       <c r="P22" t="n">
-        <v>71.03385750761181</v>
+        <v>54.79819648970449</v>
       </c>
       <c r="Q22" t="n">
-        <v>49.18016096682297</v>
+        <v>37.93943083784337</v>
       </c>
       <c r="R22" t="n">
-        <v>26.40810727846122</v>
+        <v>20.37220984952484</v>
       </c>
       <c r="S22" t="n">
-        <v>10.23541076684395</v>
+        <v>7.895981860400143</v>
       </c>
       <c r="T22" t="n">
-        <v>2.509464298600237</v>
+        <v>1.935895396133577</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03203571445021584</v>
+        <v>0.02471355824851379</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34780,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
@@ -34792,13 +34792,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P3" t="n">
-        <v>34.55702612384782</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N6" t="n">
-        <v>226.4350751681936</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35035,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35260,19 +35260,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>226.4350751681936</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>73.77900158547628</v>
       </c>
       <c r="K11" t="n">
-        <v>121.9644487350302</v>
+        <v>232.5400468784906</v>
       </c>
       <c r="L11" t="n">
-        <v>204.1123577751702</v>
+        <v>341.2911650353661</v>
       </c>
       <c r="M11" t="n">
-        <v>243.8886146223321</v>
+        <v>396.5264692257373</v>
       </c>
       <c r="N11" t="n">
-        <v>233.0551918837966</v>
+        <v>388.1628865526488</v>
       </c>
       <c r="O11" t="n">
-        <v>174.4233304118708</v>
+        <v>320.8871281512769</v>
       </c>
       <c r="P11" t="n">
-        <v>110.8113448503281</v>
+        <v>235.814807661191</v>
       </c>
       <c r="Q11" t="n">
-        <v>5.212927593424808</v>
+        <v>99.08532226743888</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>6.370323552522125</v>
+        <v>50.3125914600713</v>
       </c>
       <c r="K12" t="n">
-        <v>138.7877391315784</v>
+        <v>213.8920740070363</v>
       </c>
       <c r="L12" t="n">
-        <v>248.6418854471727</v>
+        <v>68.20063827911584</v>
       </c>
       <c r="M12" t="n">
-        <v>231.6067186693945</v>
+        <v>460.5047371566216</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>488.5585973628864</v>
       </c>
       <c r="O12" t="n">
-        <v>269.1887005891755</v>
+        <v>379.8491252296667</v>
       </c>
       <c r="P12" t="n">
-        <v>198.8728484821095</v>
+        <v>287.6875952514738</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>139.0814686107544</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>30.37038724345145</v>
       </c>
       <c r="L13" t="n">
-        <v>36.97916784721081</v>
+        <v>94.95094719301517</v>
       </c>
       <c r="M13" t="n">
-        <v>49.4834113647894</v>
+        <v>110.6065244416944</v>
       </c>
       <c r="N13" t="n">
-        <v>53.79631798062263</v>
+        <v>113.466060045434</v>
       </c>
       <c r="O13" t="n">
-        <v>33.51153056421935</v>
+        <v>88.62619518868837</v>
       </c>
       <c r="P13" t="n">
-        <v>4.916638815831893</v>
+        <v>52.07675575459799</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>99.17865997768848</v>
+        <v>73.77900158547628</v>
       </c>
       <c r="K14" t="n">
-        <v>270.6075506262143</v>
+        <v>232.5400468784906</v>
       </c>
       <c r="L14" t="n">
-        <v>388.5172695933599</v>
+        <v>341.2911650353661</v>
       </c>
       <c r="M14" t="n">
-        <v>449.0746100426745</v>
+        <v>396.5264692257373</v>
       </c>
       <c r="N14" t="n">
-        <v>441.561311225394</v>
+        <v>388.1628865526488</v>
       </c>
       <c r="O14" t="n">
-        <v>371.3097463686979</v>
+        <v>320.8871281512769</v>
       </c>
       <c r="P14" t="n">
-        <v>278.8493457412582</v>
+        <v>235.814807661191</v>
       </c>
       <c r="Q14" t="n">
-        <v>131.402468148256</v>
+        <v>99.08532226743888</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>65.44045399339312</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>239.7480006069764</v>
+        <v>121.8578402191576</v>
       </c>
       <c r="L15" t="n">
-        <v>357.8242957354353</v>
+        <v>349.6289321378194</v>
       </c>
       <c r="M15" t="n">
-        <v>501.0755843108856</v>
+        <v>460.5047371566216</v>
       </c>
       <c r="N15" t="n">
-        <v>530.2032341190004</v>
+        <v>488.5585973628864</v>
       </c>
       <c r="O15" t="n">
-        <v>417.9458319213295</v>
+        <v>379.8491252296667</v>
       </c>
       <c r="P15" t="n">
-        <v>318.263561036524</v>
+        <v>287.6875952514738</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>45.96657995307679</v>
+        <v>30.37038724345145</v>
       </c>
       <c r="L16" t="n">
-        <v>114.908704280121</v>
+        <v>94.95094719301517</v>
       </c>
       <c r="M16" t="n">
-        <v>131.6491810060191</v>
+        <v>110.6065244416944</v>
       </c>
       <c r="N16" t="n">
-        <v>134.0083692693091</v>
+        <v>113.466060045434</v>
       </c>
       <c r="O16" t="n">
-        <v>107.6003426260322</v>
+        <v>88.62619518868837</v>
       </c>
       <c r="P16" t="n">
-        <v>68.3124167725053</v>
+        <v>52.07675575459799</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>99.1786599776885</v>
+        <v>73.77900158547627</v>
       </c>
       <c r="K17" t="n">
-        <v>270.6075506262143</v>
+        <v>232.5400468784906</v>
       </c>
       <c r="L17" t="n">
-        <v>388.5172695933599</v>
+        <v>341.291165035366</v>
       </c>
       <c r="M17" t="n">
-        <v>449.0746100426746</v>
+        <v>396.5264692257372</v>
       </c>
       <c r="N17" t="n">
-        <v>441.561311225394</v>
+        <v>388.1628865526487</v>
       </c>
       <c r="O17" t="n">
-        <v>371.309746368698</v>
+        <v>320.8871281512768</v>
       </c>
       <c r="P17" t="n">
-        <v>278.8493457412583</v>
+        <v>235.814807661191</v>
       </c>
       <c r="Q17" t="n">
-        <v>131.402468148256</v>
+        <v>99.08532226743885</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>38.86933345786207</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>239.7480006069764</v>
+        <v>121.8578402191576</v>
       </c>
       <c r="L18" t="n">
-        <v>384.3954162709654</v>
+        <v>349.6289321378194</v>
       </c>
       <c r="M18" t="n">
-        <v>501.0755843108857</v>
+        <v>460.5047371566216</v>
       </c>
       <c r="N18" t="n">
-        <v>530.2032341190004</v>
+        <v>488.5585973628864</v>
       </c>
       <c r="O18" t="n">
-        <v>417.9458319213296</v>
+        <v>379.8491252296667</v>
       </c>
       <c r="P18" t="n">
-        <v>318.263561036524</v>
+        <v>287.6875952514738</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>45.9665799530768</v>
+        <v>30.37038724345144</v>
       </c>
       <c r="L19" t="n">
-        <v>114.908704280121</v>
+        <v>94.95094719301515</v>
       </c>
       <c r="M19" t="n">
-        <v>131.6491810060191</v>
+        <v>110.6065244416944</v>
       </c>
       <c r="N19" t="n">
-        <v>134.0083692693091</v>
+        <v>113.466060045434</v>
       </c>
       <c r="O19" t="n">
-        <v>107.6003426260323</v>
+        <v>88.62619518868836</v>
       </c>
       <c r="P19" t="n">
-        <v>68.3124167725053</v>
+        <v>52.07675575459798</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>99.1786599776885</v>
+        <v>73.77900158547627</v>
       </c>
       <c r="K20" t="n">
-        <v>270.6075506262143</v>
+        <v>232.5400468784906</v>
       </c>
       <c r="L20" t="n">
-        <v>388.5172695933599</v>
+        <v>341.291165035366</v>
       </c>
       <c r="M20" t="n">
-        <v>449.0746100426746</v>
+        <v>396.5264692257372</v>
       </c>
       <c r="N20" t="n">
-        <v>441.561311225394</v>
+        <v>388.1628865526487</v>
       </c>
       <c r="O20" t="n">
-        <v>371.309746368698</v>
+        <v>320.8871281512768</v>
       </c>
       <c r="P20" t="n">
-        <v>278.8493457412583</v>
+        <v>235.814807661191</v>
       </c>
       <c r="Q20" t="n">
-        <v>131.402468148256</v>
+        <v>99.08532226743885</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>38.86933345786207</v>
+        <v>50.31259146007129</v>
       </c>
       <c r="K21" t="n">
-        <v>239.7480006069764</v>
+        <v>213.8920740070363</v>
       </c>
       <c r="L21" t="n">
-        <v>384.3954162709654</v>
+        <v>349.6289321378194</v>
       </c>
       <c r="M21" t="n">
-        <v>501.0755843108857</v>
+        <v>460.5047371566216</v>
       </c>
       <c r="N21" t="n">
-        <v>530.2032341190004</v>
+        <v>488.5585973628864</v>
       </c>
       <c r="O21" t="n">
-        <v>417.9458319213296</v>
+        <v>98.42083137096238</v>
       </c>
       <c r="P21" t="n">
-        <v>318.263561036524</v>
+        <v>287.6875952514738</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>139.0814686107543</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>45.9665799530768</v>
+        <v>30.37038724345144</v>
       </c>
       <c r="L22" t="n">
-        <v>114.908704280121</v>
+        <v>94.95094719301515</v>
       </c>
       <c r="M22" t="n">
-        <v>131.6491810060191</v>
+        <v>110.6065244416944</v>
       </c>
       <c r="N22" t="n">
-        <v>134.0083692693091</v>
+        <v>113.466060045434</v>
       </c>
       <c r="O22" t="n">
-        <v>107.6003426260323</v>
+        <v>88.62619518868836</v>
       </c>
       <c r="P22" t="n">
-        <v>68.3124167725053</v>
+        <v>52.07675575459798</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36457,7 +36457,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37168,7 +37168,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37396,7 +37396,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
@@ -37405,7 +37405,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37633,7 +37633,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
@@ -37642,7 +37642,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37879,7 +37879,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38107,7 +38107,7 @@
         <v>529.4413268262939</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355125</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
@@ -38116,7 +38116,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
